--- a/Tahoe and Mono bulk sample gsd for model.xlsx
+++ b/Tahoe and Mono bulk sample gsd for model.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ae9258d1367456ee/Documents/At home work folder/Hillslope sediment transport/Data/Bulk samples gsd/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="53" documentId="13_ncr:1_{BB14ACCC-9DEC-481D-8290-1B03B3E5AB28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C3461E37-6706-4293-8750-EFBB373CAF3E}"/>
+  <xr:revisionPtr revIDLastSave="77" documentId="13_ncr:1_{BB14ACCC-9DEC-481D-8290-1B03B3E5AB28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{89E46757-BAA0-4DC2-84F8-DA135D4058FC}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{73AF935E-DD13-414F-A883-E426143F1736}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="35">
   <si>
     <t>Tahoe</t>
   </si>
@@ -127,10 +127,19 @@
     <t>Tahoe Moraine</t>
   </si>
   <si>
-    <t>** Model outputs are 2-5x the measured transport volumes</t>
-  </si>
-  <si>
     <t>&lt;0.25</t>
+  </si>
+  <si>
+    <t>Grain size</t>
+  </si>
+  <si>
+    <t>Flux</t>
+  </si>
+  <si>
+    <t>Diffusivity</t>
+  </si>
+  <si>
+    <t>Name</t>
   </si>
 </sst>
 </file>
@@ -191,6 +200,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -490,10 +503,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91F509CE-93AB-4081-8B30-E0378ABC34EB}">
-  <dimension ref="A1:W31"/>
+  <dimension ref="A1:W32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T20" sqref="T20"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -507,6 +520,7 @@
     <col min="7" max="7" width="13.6640625" customWidth="1"/>
     <col min="8" max="8" width="16.5546875" customWidth="1"/>
     <col min="9" max="9" width="15.33203125" customWidth="1"/>
+    <col min="11" max="11" width="10.21875" customWidth="1"/>
     <col min="15" max="15" width="17.6640625" customWidth="1"/>
     <col min="20" max="20" width="14" customWidth="1"/>
     <col min="23" max="23" width="13.109375" customWidth="1"/>
@@ -562,7 +576,7 @@
         <v>9</v>
       </c>
       <c r="U1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="V1" t="s">
         <v>4</v>
@@ -819,7 +833,7 @@
         <v>9</v>
       </c>
       <c r="U11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="V11" t="s">
         <v>4</v>
@@ -1116,6 +1130,9 @@
       <c r="A25" t="s">
         <v>26</v>
       </c>
+      <c r="J25" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
@@ -1132,6 +1149,15 @@
       </c>
       <c r="E26" t="s">
         <v>28</v>
+      </c>
+      <c r="I26" t="s">
+        <v>31</v>
+      </c>
+      <c r="J26" t="s">
+        <v>32</v>
+      </c>
+      <c r="K26" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.3">
@@ -1159,11 +1185,28 @@
         <f>SUM(A27:E27)</f>
         <v>1.9000000000000001E-4</v>
       </c>
-      <c r="G27" t="s">
-        <v>30</v>
-      </c>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A28" s="2">
+        <f>A27/0.244</f>
+        <v>4.6721311475409838E-5</v>
+      </c>
+      <c r="B28" s="2">
+        <f t="shared" ref="B28:E28" si="0">B27/0.244</f>
+        <v>7.7868852459016402E-5</v>
+      </c>
+      <c r="C28" s="2">
+        <f t="shared" si="0"/>
+        <v>1.168032786885246E-4</v>
+      </c>
+      <c r="D28" s="2">
+        <f t="shared" si="0"/>
+        <v>1.4795081967213116E-4</v>
+      </c>
+      <c r="E28" s="2">
+        <f t="shared" si="0"/>
+        <v>3.8934426229508199E-4</v>
+      </c>
       <c r="F28" s="2"/>
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.3">
@@ -1214,6 +1257,28 @@
       <c r="F31" s="2">
         <f>SUM(A31:E31)</f>
         <v>1.9000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A32" s="2">
+        <f>A31/0.349</f>
+        <v>8.4383954154727798E-5</v>
+      </c>
+      <c r="B32" s="2">
+        <f t="shared" ref="B32:E32" si="1">B31/0.349</f>
+        <v>3.2664756446991408E-5</v>
+      </c>
+      <c r="C32" s="2">
+        <f t="shared" si="1"/>
+        <v>8.1661891117478517E-5</v>
+      </c>
+      <c r="D32" s="2">
+        <f t="shared" si="1"/>
+        <v>1.3065902578796563E-4</v>
+      </c>
+      <c r="E32" s="2">
+        <f t="shared" si="1"/>
+        <v>2.1504297994269346E-4</v>
       </c>
     </row>
   </sheetData>
